--- a/biology/Zoologie/Éolienne_et_cétacé/Éolienne_et_cétacé.xlsx
+++ b/biology/Zoologie/Éolienne_et_cétacé/Éolienne_et_cétacé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89olienne_et_c%C3%A9tac%C3%A9</t>
+          <t>Éolienne_et_cétacé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Éolienne et cétacé (France) ou La gripette et la baleine (Québec) (The Squirt and the Whale) est le 19e épisode de la saison 21 de la série télévisée Les Simpson. Il est considéré comme le meilleur épisode de la saison 21[1] avec Mon voisin le Bob.
+Éolienne et cétacé (France) ou La gripette et la baleine (Québec) (The Squirt and the Whale) est le 19e épisode de la saison 21 de la série télévisée Les Simpson. Il est considéré comme le meilleur épisode de la saison 21 avec Mon voisin le Bob.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89olienne_et_c%C3%A9tac%C3%A9</t>
+          <t>Éolienne_et_cétacé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour réduire leurs factures d'électricité, les Simpson installent une éolienne dans la cour arrière de leur maison. Ils trouvent cela tellement écologique et utile qu'ils veulent devenir indépendants du service d'électricité nucléaire (mais surtout parce qu'Homer refuse de fournir en même temps du courant à leur compagnie d'électricité), ce qui a cependant la conséquence de n'avoir de l’électricité que lorsqu'il y a du vent. À la suite d'une réaction en chaîne, perpétré par Bart ayant demandé à Dieu du vent pour qu'il n'ait pas à faire tourner en permanence lui-même les hélices, une tempête éclate et une baleine échoue sur la plage près de là juste après. Lisa veut la ramener à la mer mais ce sera bien plus difficile qu'il n'y parait.
 En effet, malgré l'aide de tous les habitants, menés par Homer qui veut que Lisa ne soit pas en peine, la baleine, surnommé Bluella n'est pas rendue à la mer et finit par mourir. Après un mémorial à la baleine par les habitants, les restes de la baleine sont utilisés, renforçant la culpabilité de Lisa. Cependant, elle découvre alors les enfants de Bluella se faire attaquer par des requins, et alors qu'elle se résout à les laisser, s'étant convaincue que c'est dans la nature des choses, Homer intervient et lui dit que la nature peut aller se faire voir et qu'ils vont sauver les baleineaux.
